--- a/audit/P4_01_audit.xlsx
+++ b/audit/P4_01_audit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macintosh/Documents/JessenRungen_4_26102021/audit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6C8EB3-247C-B447-A71A-11597F8F3490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5957426A-80CD-AF45-9D27-FB00B60CFF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="460" windowWidth="24820" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>Référence</t>
   </si>
   <si>
-    <t>SEO</t>
-  </si>
-  <si>
     <t>Présence d'une URL "https" et "http.</t>
   </si>
   <si>
@@ -448,6 +445,9 @@
       </rPr>
       <t>✓</t>
     </r>
+  </si>
+  <si>
+    <t>SEO &amp; PERFORMANCE TECHNIQUE</t>
   </si>
 </sst>
 </file>
@@ -694,7 +694,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -805,9 +805,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1187,9 +1184,9 @@
   <dimension ref="A1:AA81"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B21" sqref="B21"/>
-      <selection pane="bottomLeft" activeCell="B39" sqref="B39:C39"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19:A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="35" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1213,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>3</v>
@@ -1249,720 +1246,720 @@
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="1:27" s="5" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="49" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="50"/>
+      <c r="A2" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="49"/>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:27" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="44"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="40">
         <v>1</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:27" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="44"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="40">
         <v>2</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:27" s="4" customFormat="1" ht="26" x14ac:dyDescent="0.2">
-      <c r="A5" s="44"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="40">
         <v>3</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D5" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="E5" s="33" t="s">
-        <v>107</v>
-      </c>
       <c r="F5" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:27" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="44"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="40">
         <v>4</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D6" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="E6" s="33" t="s">
-        <v>109</v>
-      </c>
       <c r="F6" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:27" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="44"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="40">
         <v>5</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D7" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="36" t="s">
-        <v>111</v>
-      </c>
       <c r="F7" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:27" s="4" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A8" s="44"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="40">
         <v>6</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D8" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="E8" s="37" t="s">
-        <v>113</v>
-      </c>
       <c r="F8" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="43"/>
+      <c r="B9" s="40">
+        <v>7</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="43"/>
+      <c r="B10" s="40">
+        <v>8</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="43"/>
+      <c r="B11" s="40">
+        <v>9</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="20"/>
+    </row>
+    <row r="12" spans="1:27" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="43"/>
+      <c r="B12" s="40">
+        <v>10</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G12" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="43"/>
+      <c r="B13" s="40">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="44"/>
-      <c r="B9" s="40">
-        <v>8</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="44"/>
-      <c r="B10" s="40">
-        <v>9</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" s="19" t="s">
+      <c r="C13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" s="4" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="44"/>
-      <c r="B11" s="40">
-        <v>10</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="20"/>
-    </row>
-    <row r="12" spans="1:27" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" s="44"/>
-      <c r="B12" s="40">
-        <v>11</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="44"/>
-      <c r="B13" s="40">
-        <v>12</v>
-      </c>
-      <c r="C13" s="17" t="s">
+      <c r="D13" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="F13" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>30</v>
-      </c>
       <c r="G13" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:27" s="5" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="44"/>
-      <c r="B14" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="50"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="49"/>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
     </row>
     <row r="15" spans="1:27" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="44"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="40">
+        <v>12</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A16" s="43"/>
+      <c r="B16" s="40">
         <v>13</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A16" s="44"/>
-      <c r="B16" s="40">
-        <v>14</v>
-      </c>
       <c r="C16" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="7" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="44"/>
-      <c r="B17" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="50"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="49"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
     </row>
     <row r="18" spans="1:7" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A18" s="45"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="40">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" s="18" t="s">
+      <c r="F18" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="18" t="s">
-        <v>47</v>
-      </c>
       <c r="G18" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="5" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" s="52"/>
+      <c r="A19" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="51"/>
       <c r="D19" s="28"/>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
     </row>
     <row r="20" spans="1:7" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="47"/>
+      <c r="A20" s="46"/>
       <c r="B20" s="41">
+        <v>15</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="46"/>
+      <c r="B21" s="41">
         <v>16</v>
       </c>
-      <c r="C20" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="18" t="s">
+      <c r="C21" s="17" t="s">
         <v>32</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="47"/>
-      <c r="B21" s="41">
-        <v>17</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>33</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F21" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="46"/>
+      <c r="B22" s="41">
+        <v>17</v>
+      </c>
+      <c r="C22" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="47"/>
-      <c r="B22" s="41">
+      <c r="D22" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="46"/>
+      <c r="B23" s="41">
         <v>18</v>
       </c>
-      <c r="C22" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" s="18" t="s">
+      <c r="C23" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="47"/>
-      <c r="B23" s="41">
-        <v>19</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="19" t="s">
+      <c r="F23" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>39</v>
-      </c>
       <c r="G23" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="5" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="47"/>
-      <c r="B24" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="C24" s="52"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="51"/>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
       <c r="F24" s="28"/>
       <c r="G24" s="28"/>
     </row>
     <row r="25" spans="1:7" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A25" s="47"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="41">
+        <v>19</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A26" s="46"/>
+      <c r="B26" s="41">
         <v>20</v>
       </c>
-      <c r="C25" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="18" t="s">
+      <c r="C26" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A26" s="47"/>
-      <c r="B26" s="41">
-        <v>21</v>
-      </c>
-      <c r="C26" s="17" t="s">
+      <c r="E26" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="D26" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>129</v>
-      </c>
       <c r="G26" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="3" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="47"/>
-      <c r="B27" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="C27" s="52"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="51"/>
       <c r="D27" s="29"/>
       <c r="E27" s="29"/>
       <c r="F27" s="29"/>
       <c r="G27" s="29"/>
     </row>
     <row r="28" spans="1:7" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="47"/>
-      <c r="B28" s="42">
+      <c r="A28" s="46"/>
+      <c r="B28" s="41">
+        <v>21</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="46"/>
+      <c r="B29" s="41">
         <v>22</v>
       </c>
-      <c r="C28" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="20" t="s">
+      <c r="C29" s="17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="47"/>
-      <c r="B29" s="42">
+      <c r="D29" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="46"/>
+      <c r="B30" s="41">
         <v>23</v>
       </c>
-      <c r="C29" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="19" t="s">
+      <c r="C30" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="47"/>
-      <c r="B30" s="42">
+      <c r="D30" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="46"/>
+      <c r="B31" s="41">
         <v>24</v>
       </c>
-      <c r="C30" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E30" s="18" t="s">
+      <c r="C31" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="18" t="s">
         <v>17</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="47"/>
-      <c r="B31" s="42">
-        <v>25</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>18</v>
       </c>
       <c r="F31" s="19"/>
       <c r="G31" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="5" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="47"/>
-      <c r="B32" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="C32" s="52"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="51"/>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
       <c r="G32" s="28"/>
     </row>
     <row r="33" spans="1:7" s="4" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A33" s="47"/>
+      <c r="A33" s="46"/>
       <c r="B33" s="41">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C33" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>53</v>
-      </c>
       <c r="F33" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="5" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="47"/>
-      <c r="B34" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="C34" s="52"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="51"/>
       <c r="D34" s="28"/>
       <c r="E34" s="28"/>
       <c r="F34" s="28"/>
       <c r="G34" s="28"/>
     </row>
     <row r="35" spans="1:7" s="5" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="47"/>
+      <c r="A35" s="46"/>
       <c r="B35" s="41">
+        <v>26</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="46"/>
+      <c r="B36" s="41">
         <v>27</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C36" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="F35" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="G35" s="20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="47"/>
-      <c r="B36" s="41">
-        <v>28</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>55</v>
-      </c>
       <c r="F36" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="5" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="47"/>
-      <c r="B37" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="C37" s="52"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="51"/>
       <c r="D37" s="28"/>
       <c r="E37" s="28"/>
       <c r="F37" s="28"/>
       <c r="G37" s="28"/>
     </row>
     <row r="38" spans="1:7" s="4" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A38" s="47"/>
+      <c r="A38" s="46"/>
       <c r="B38" s="41">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C38" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>58</v>
-      </c>
       <c r="F38" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="5" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="47"/>
-      <c r="B39" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="C39" s="52"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="51"/>
       <c r="D39" s="28"/>
       <c r="E39" s="28"/>
       <c r="F39" s="28"/>
       <c r="G39" s="28"/>
     </row>
     <row r="40" spans="1:7" s="4" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A40" s="48"/>
+      <c r="A40" s="47"/>
       <c r="B40" s="41">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G40" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="4" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -1976,10 +1973,10 @@
     </row>
     <row r="42" spans="1:7" s="4" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="30" t="s">
         <v>60</v>
-      </c>
-      <c r="D42" s="30" t="s">
-        <v>61</v>
       </c>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
